--- a/tests/test_xls/sheet_txns/test_select/test_select_amount/test_select_amount/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns/test_select/test_select_amount/test_select_amount/expected_result.xlsx
@@ -23,10 +23,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy"/>
-    <numFmt numFmtId="167" formatCode="$#,##0.00_);[Red]($#,##0.00)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy"/>
+    <numFmt numFmtId="165" formatCode="$#,##0.00_);[Red]($#,##0.00)"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -65,8 +65,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -453,7 +453,7 @@
     <col width="11" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -532,50 +532,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" s="2" t="n">
-        <v>43105</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" s="3" t="n">
-        <v>-223.92</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Expense</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Era C</t>
-        </is>
-      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="H2" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -588,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -609,7 +567,7 @@
     <col width="11" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -693,7 +651,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43103</v>
+        <v>43102</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +670,7 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-931.79</v>
+        <v>-427.77</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -739,7 +697,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43117</v>
+        <v>43104</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +716,7 @@
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>-12.63</v>
+        <v>-168.82</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -785,7 +743,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43166</v>
+        <v>43105</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,7 +762,7 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="3" t="n">
-        <v>-44.75</v>
+        <v>-898.86</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -831,7 +789,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>43183</v>
+        <v>43115</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -850,7 +808,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="3" t="n">
-        <v>-719.4299999999999</v>
+        <v>-455.74</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -877,7 +835,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43202</v>
+        <v>43116</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -896,7 +854,7 @@
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="3" t="n">
-        <v>-45</v>
+        <v>-7.9</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -923,7 +881,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>43210</v>
+        <v>43122</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +900,7 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" s="3" t="n">
-        <v>-910.38</v>
+        <v>-68.91</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -969,7 +927,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>43223</v>
+        <v>43126</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -988,7 +946,7 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="3" t="n">
-        <v>-103.36</v>
+        <v>-127.81</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1015,7 +973,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>43235</v>
+        <v>43127</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1034,7 +992,7 @@
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="3" t="n">
-        <v>-797.5599999999999</v>
+        <v>-982.34</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1061,7 +1019,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>43236</v>
+        <v>43237</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1080,7 +1038,7 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" s="3" t="n">
-        <v>-672.28</v>
+        <v>-747.8099999999999</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1107,7 +1065,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>43248</v>
+        <v>43277</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1126,7 +1084,7 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" s="3" t="n">
-        <v>-160.03</v>
+        <v>-571.55</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1153,7 +1111,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>43260</v>
+        <v>43292</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1172,7 +1130,7 @@
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="3" t="n">
-        <v>-997.21</v>
+        <v>-190.72</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1199,7 +1157,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>43322</v>
+        <v>43312</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1218,7 +1176,7 @@
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" s="3" t="n">
-        <v>-334.49</v>
+        <v>-233.06</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1230,11 +1188,7 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Memo 6</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
@@ -1249,7 +1203,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>43329</v>
+        <v>43349</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1268,7 +1222,7 @@
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" s="3" t="n">
-        <v>-674.42</v>
+        <v>-966.61</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1295,7 +1249,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>43373</v>
+        <v>43375</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1314,7 +1268,7 @@
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" s="3" t="n">
-        <v>-395.7</v>
+        <v>-778.55</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1341,7 +1295,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>43411</v>
+        <v>43378</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1360,7 +1314,7 @@
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" s="3" t="n">
-        <v>-898.54</v>
+        <v>-620.2</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1387,7 +1341,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
-        <v>43420</v>
+        <v>43387</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1406,7 +1360,7 @@
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" s="3" t="n">
-        <v>-557.78</v>
+        <v>-864.45</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1433,7 +1387,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
-        <v>43423</v>
+        <v>43403</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1452,7 +1406,7 @@
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" s="3" t="n">
-        <v>-851.83</v>
+        <v>-538.1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1479,7 +1433,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1498,7 +1452,7 @@
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" s="3" t="n">
-        <v>-475.47</v>
+        <v>-146.1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1525,7 +1479,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>43457</v>
+        <v>43422</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1544,7 +1498,7 @@
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" s="3" t="n">
-        <v>-921.05</v>
+        <v>-203.79</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1571,7 +1525,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>43462</v>
+        <v>43428</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1590,7 +1544,7 @@
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" s="3" t="n">
-        <v>-822.4400000000001</v>
+        <v>-623</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1617,7 +1571,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>43477</v>
+        <v>43433</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1636,7 +1590,7 @@
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" s="3" t="n">
-        <v>-466.94</v>
+        <v>-685.17</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1663,7 +1617,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>43493</v>
+        <v>43438</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1682,7 +1636,7 @@
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" s="3" t="n">
-        <v>-563.77</v>
+        <v>-579.5599999999999</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1709,7 +1663,7 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>43526</v>
+        <v>43445</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1728,7 +1682,7 @@
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" s="3" t="n">
-        <v>-518.42</v>
+        <v>-595.88</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1755,7 +1709,7 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
-        <v>43536</v>
+        <v>43446</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1774,7 +1728,7 @@
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" s="3" t="n">
-        <v>-480.7</v>
+        <v>-466.99</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1801,7 +1755,7 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
-        <v>43545</v>
+        <v>43488</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1820,7 +1774,7 @@
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" s="3" t="n">
-        <v>-213.22</v>
+        <v>-220.05</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1847,7 +1801,7 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
-        <v>43565</v>
+        <v>43541</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1866,7 +1820,7 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" s="3" t="n">
-        <v>-490.01</v>
+        <v>-132.45</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1893,7 +1847,7 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
-        <v>43580</v>
+        <v>43571</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1912,7 +1866,7 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" s="3" t="n">
-        <v>-162.94</v>
+        <v>-371.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1939,7 +1893,7 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
-        <v>43594</v>
+        <v>43591</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1958,7 +1912,7 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" s="3" t="n">
-        <v>-428.04</v>
+        <v>-932.51</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1985,7 +1939,7 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
-        <v>43610</v>
+        <v>43596</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2004,7 +1958,7 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" s="3" t="n">
-        <v>-303.16</v>
+        <v>-479.6</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2031,7 +1985,7 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
-        <v>43640</v>
+        <v>43616</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2050,7 +2004,7 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" s="3" t="n">
-        <v>-712.9299999999999</v>
+        <v>-132.39</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2077,7 +2031,7 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
-        <v>43734</v>
+        <v>43620</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2096,7 +2050,7 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" s="3" t="n">
-        <v>-816.6900000000001</v>
+        <v>-44.79</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2108,11 +2062,7 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Memo 9</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
@@ -2127,7 +2077,7 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
-        <v>43756</v>
+        <v>43653</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2146,7 +2096,7 @@
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" s="3" t="n">
-        <v>-843.99</v>
+        <v>-741.11</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2173,7 +2123,7 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
-        <v>43762</v>
+        <v>43672</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2192,7 +2142,7 @@
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" s="3" t="n">
-        <v>-353.59</v>
+        <v>-20.59</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2219,7 +2169,7 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
-        <v>43791</v>
+        <v>43708</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2238,7 +2188,7 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" s="3" t="n">
-        <v>-184.72</v>
+        <v>-734.8</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2265,7 +2215,7 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
-        <v>43839</v>
+        <v>43708</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2284,7 +2234,7 @@
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" s="3" t="n">
-        <v>-948.4</v>
+        <v>-398.86</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2301,7 +2251,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era C</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2261,7 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
-        <v>43849</v>
+        <v>43716</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2330,7 +2280,7 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" s="3" t="n">
-        <v>-898.54</v>
+        <v>-959.98</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2347,7 +2297,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era C</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2307,7 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
-        <v>43862</v>
+        <v>43749</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2376,7 +2326,7 @@
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" s="3" t="n">
-        <v>-61.06</v>
+        <v>-860.9</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2393,7 +2343,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era C</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2353,7 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
-        <v>43866</v>
+        <v>43756</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2422,7 +2372,7 @@
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" s="3" t="n">
-        <v>-9.06</v>
+        <v>-371.63</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2439,7 +2389,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era C</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2399,7 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
-        <v>43878</v>
+        <v>43812</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2468,7 +2418,7 @@
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" s="3" t="n">
-        <v>-917.5599999999999</v>
+        <v>-75.48</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2485,7 +2435,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era C</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2445,7 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="n">
-        <v>43916</v>
+        <v>43816</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2514,7 +2464,7 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" s="3" t="n">
-        <v>-478.53</v>
+        <v>-82.66</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2531,7 +2481,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era C</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2491,7 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="n">
-        <v>43928</v>
+        <v>43869</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2560,7 +2510,7 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" s="3" t="n">
-        <v>-582.86</v>
+        <v>-360.93</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2587,7 +2537,7 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" s="2" t="n">
-        <v>43970</v>
+        <v>43882</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2606,7 +2556,7 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" s="3" t="n">
-        <v>-74.98999999999999</v>
+        <v>-741.0700000000001</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2633,7 +2583,7 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" s="2" t="n">
-        <v>44059</v>
+        <v>43892</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2652,7 +2602,7 @@
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" s="3" t="n">
-        <v>-376.52</v>
+        <v>-229.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2679,7 +2629,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" s="2" t="n">
-        <v>44072</v>
+        <v>43917</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2698,7 +2648,7 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" s="3" t="n">
-        <v>-379.26</v>
+        <v>-105.68</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2710,7 +2660,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Memo 20</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -2725,7 +2679,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" s="2" t="n">
-        <v>44093</v>
+        <v>43941</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2744,7 +2698,7 @@
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" s="3" t="n">
-        <v>-273.38</v>
+        <v>-858.9400000000001</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2771,7 +2725,7 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" s="2" t="n">
-        <v>44126</v>
+        <v>43949</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2790,7 +2744,7 @@
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" s="3" t="n">
-        <v>-823.6799999999999</v>
+        <v>-173.4</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2817,7 +2771,7 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" s="2" t="n">
-        <v>44169</v>
+        <v>43999</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2836,7 +2790,7 @@
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" s="3" t="n">
-        <v>-875.45</v>
+        <v>858.9400000000001</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2848,7 +2802,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Refund of 04/20/2020</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -2863,7 +2821,7 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" s="2" t="n">
-        <v>44171</v>
+        <v>44006</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2882,7 +2840,7 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" s="3" t="n">
-        <v>-458.68</v>
+        <v>-264.26</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2909,7 +2867,7 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" s="2" t="n">
-        <v>44194</v>
+        <v>44016</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2928,7 +2886,7 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" s="3" t="n">
-        <v>-217.17</v>
+        <v>-855.83</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2955,7 +2913,7 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="n">
-        <v>44204</v>
+        <v>44039</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2974,7 +2932,7 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" s="3" t="n">
-        <v>-53.17</v>
+        <v>-542.77</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2986,12 +2944,16 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Memo 8</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3001,7 +2963,7 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" s="2" t="n">
-        <v>44210</v>
+        <v>44042</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3020,7 +2982,7 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" s="3" t="n">
-        <v>-903.54</v>
+        <v>-387.29</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3037,7 +2999,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3009,7 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="n">
-        <v>44214</v>
+        <v>44048</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3066,7 +3028,7 @@
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" s="3" t="n">
-        <v>-446.44</v>
+        <v>-708.95</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3083,7 +3045,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3055,7 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="n">
-        <v>44275</v>
+        <v>44051</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3112,7 +3074,7 @@
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" s="3" t="n">
-        <v>-598.79</v>
+        <v>-247.2</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3129,7 +3091,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3101,7 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="n">
-        <v>44310</v>
+        <v>44063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3158,7 +3120,7 @@
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" s="3" t="n">
-        <v>-956.71</v>
+        <v>-761.65</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3175,7 +3137,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3185,7 +3147,7 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="n">
-        <v>44328</v>
+        <v>44072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3204,7 +3166,7 @@
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" s="3" t="n">
-        <v>-406.84</v>
+        <v>-943.77</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3221,7 +3183,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3193,7 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="n">
-        <v>44337</v>
+        <v>44083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3250,7 +3212,7 @@
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" s="3" t="n">
-        <v>-21.28</v>
+        <v>-66.56999999999999</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3267,7 +3229,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3239,7 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="n">
-        <v>44339</v>
+        <v>44104</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3296,7 +3258,7 @@
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" s="3" t="n">
-        <v>-860.58</v>
+        <v>-203.63</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3313,7 +3275,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3285,7 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="n">
-        <v>44355</v>
+        <v>44147</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3342,7 +3304,7 @@
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" s="3" t="n">
-        <v>-493.72</v>
+        <v>-569.46</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3359,7 +3321,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3331,7 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" s="2" t="n">
-        <v>44362</v>
+        <v>44170</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3388,7 +3350,7 @@
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" s="3" t="n">
-        <v>-469.94</v>
+        <v>-757.54</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3405,7 +3367,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3377,7 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" s="2" t="n">
-        <v>44364</v>
+        <v>44171</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3434,7 +3396,7 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" s="3" t="n">
-        <v>-161.69</v>
+        <v>-61.2</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3451,7 +3413,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3423,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" s="2" t="n">
-        <v>44368</v>
+        <v>44176</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3480,7 +3442,7 @@
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" s="3" t="n">
-        <v>-541.36</v>
+        <v>-798.05</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3497,7 +3459,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3469,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" s="2" t="n">
-        <v>44381</v>
+        <v>44202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3526,7 +3488,7 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" s="3" t="n">
-        <v>-853.72</v>
+        <v>-235.24</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3553,7 +3515,7 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" s="2" t="n">
-        <v>44425</v>
+        <v>44257</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3572,7 +3534,7 @@
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" s="3" t="n">
-        <v>-763.52</v>
+        <v>-559.02</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3599,7 +3561,7 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" s="2" t="n">
-        <v>44452</v>
+        <v>44280</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3618,7 +3580,7 @@
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" s="3" t="n">
-        <v>-61.67</v>
+        <v>-703.97</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3645,7 +3607,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" s="2" t="n">
-        <v>44465</v>
+        <v>44287</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3664,7 +3626,7 @@
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" s="3" t="n">
-        <v>-437.39</v>
+        <v>-484.26</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3691,7 +3653,7 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" s="2" t="n">
-        <v>44493</v>
+        <v>44297</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3710,7 +3672,7 @@
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" s="3" t="n">
-        <v>-811.0599999999999</v>
+        <v>-703.85</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3737,7 +3699,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" s="2" t="n">
-        <v>44536</v>
+        <v>44340</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3756,7 +3718,7 @@
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" s="3" t="n">
-        <v>-28.44</v>
+        <v>-452.43</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3783,7 +3745,7 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" s="2" t="n">
-        <v>44569</v>
+        <v>44383</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3802,7 +3764,7 @@
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" s="3" t="n">
-        <v>-406.79</v>
+        <v>-785.16</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3829,7 +3791,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" s="2" t="n">
-        <v>44580</v>
+        <v>44406</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3848,7 +3810,7 @@
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" s="3" t="n">
-        <v>-732.71</v>
+        <v>-247.08</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3860,11 +3822,7 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Memo 8</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
@@ -3879,7 +3837,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" s="2" t="n">
-        <v>44594</v>
+        <v>44448</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3898,7 +3856,7 @@
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" s="3" t="n">
-        <v>-578.3200000000001</v>
+        <v>-386.73</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3925,7 +3883,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" s="2" t="n">
-        <v>44681</v>
+        <v>44509</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3944,7 +3902,7 @@
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" s="3" t="n">
-        <v>-413.9</v>
+        <v>-938.7</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3971,7 +3929,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" s="2" t="n">
-        <v>44745</v>
+        <v>44518</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3990,7 +3948,7 @@
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" s="3" t="n">
-        <v>-995.03</v>
+        <v>-134.74</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4017,7 +3975,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" s="2" t="n">
-        <v>44764</v>
+        <v>44530</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4036,7 +3994,7 @@
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" s="3" t="n">
-        <v>-431.04</v>
+        <v>-937.0599999999999</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4063,7 +4021,7 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" s="2" t="n">
-        <v>44817</v>
+        <v>44537</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4082,7 +4040,7 @@
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" s="3" t="n">
-        <v>-997.8</v>
+        <v>-293.6</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4109,7 +4067,7 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" s="2" t="n">
-        <v>44876</v>
+        <v>44576</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4128,7 +4086,7 @@
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" s="3" t="n">
-        <v>-334.38</v>
+        <v>-193.96</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -4155,7 +4113,7 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" s="2" t="n">
-        <v>44917</v>
+        <v>44586</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4174,7 +4132,7 @@
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" s="3" t="n">
-        <v>-836.1</v>
+        <v>-365.61</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -4201,7 +4159,7 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="n">
-        <v>44919</v>
+        <v>44616</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4220,7 +4178,7 @@
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" s="3" t="n">
-        <v>-484.61</v>
+        <v>-262.85</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -4236,6 +4194,934 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" s="2" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" s="3" t="n">
+        <v>-546.79</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" s="3" t="n">
+        <v>-669.53</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" s="3" t="n">
+        <v>-889.76</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" s="3" t="n">
+        <v>-942.1900000000001</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" s="3" t="n">
+        <v>-515.26</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" s="2" t="n">
+        <v>44703</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" s="3" t="n">
+        <v>-262.03</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" s="3" t="n">
+        <v>-575.5599999999999</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" s="2" t="n">
+        <v>44717</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" s="3" t="n">
+        <v>-19.84</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" s="3" t="n">
+        <v>-41.63</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" s="3" t="n">
+        <v>942.1900000000001</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Refund of 04/27/2022</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" s="3" t="n">
+        <v>-785.85</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" s="3" t="n">
+        <v>450.81</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Refund of 06/03/2022</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" s="3" t="n">
+        <v>-909.9400000000001</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" s="2" t="n">
+        <v>44843</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" s="3" t="n">
+        <v>-298.82</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" s="2" t="n">
+        <v>44844</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" s="3" t="n">
+        <v>-953.0700000000001</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" s="2" t="n">
+        <v>44856</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" s="3" t="n">
+        <v>-515.34</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" s="2" t="n">
+        <v>44862</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" s="3" t="n">
+        <v>-330.4</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" s="3" t="n">
+        <v>-883.47</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" s="3" t="n">
+        <v>-139.24</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" s="3" t="n">
+        <v>-902.13</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
         <is>
           <t>Era A</t>
         </is>
@@ -4252,7 +5138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4273,7 +5159,7 @@
     <col width="11" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -4357,26 +5243,26 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>44262</v>
+        <v>43844</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Pharmacy</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>General</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-999.8200000000001</v>
+        <v>-999.09</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -4392,6 +5278,52 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
+        <is>
+          <t>Era B</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" s="3" t="n">
+        <v>-999.59</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Era A</t>
         </is>
@@ -4429,7 +5361,7 @@
     <col width="11" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -4513,26 +5445,26 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>44262</v>
+        <v>43844</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Pharmacy</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>General</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-999.8200000000001</v>
+        <v>-999.09</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -4549,7 +5481,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -4559,11 +5491,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>44817</v>
+        <v>44370</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4573,12 +5505,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>-997.8</v>
+        <v>-999.59</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -4610,7 +5542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4631,7 +5563,7 @@
     <col width="11" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -4715,7 +5647,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43616</v>
+        <v>43131</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -4730,7 +5662,7 @@
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>11390.17</v>
+        <v>12950.48</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -4757,7 +5689,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>44712</v>
+        <v>43404</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -4772,7 +5704,7 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>16567.25</v>
+        <v>11740.85</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -4788,6 +5720,90 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Transfer From</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>11843.05</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Era B</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Transfer From</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>14914.98</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Era A</t>
         </is>
@@ -4804,7 +5820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4825,7 +5841,7 @@
     <col width="11" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -4909,7 +5925,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43616</v>
+        <v>43131</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -4924,7 +5940,7 @@
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>11390.17</v>
+        <v>12950.48</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -4951,7 +5967,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43830</v>
+        <v>43404</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -4966,7 +5982,7 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>10928.45</v>
+        <v>11740.85</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -4993,7 +6009,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>44712</v>
+        <v>44074</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -5008,7 +6024,7 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>16567.25</v>
+        <v>11843.05</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -5024,6 +6040,48 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
+        <is>
+          <t>Era B</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Transfer From</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>14914.98</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Era A</t>
         </is>
@@ -5040,7 +6098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5061,7 +6119,7 @@
     <col width="11" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -5145,11 +6203,11 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43266</v>
+        <v>43384</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -5160,7 +6218,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-995.05</v>
+        <v>-996.4</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -5181,232 +6239,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" s="2" t="n">
-        <v>43633</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Walgreens</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" s="3" t="n">
-        <v>-995.51</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Expense</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Era C</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" s="2" t="n">
-        <v>43637</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CVS</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" s="3" t="n">
-        <v>-996.14</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Expense</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Era C</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" s="2" t="n">
-        <v>43973</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Wendy's</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" s="3" t="n">
-        <v>-996.9400000000001</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Expense</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Era B</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" s="2" t="n">
-        <v>44077</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Walgreens</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" s="3" t="n">
-        <v>-996.58</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Expense</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Era B</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" s="2" t="n">
-        <v>44745</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" s="3" t="n">
-        <v>-995.03</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Expense</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Era A</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
